--- a/Congreso_2018/DATOS_MESAS_2018.xlsx
+++ b/Congreso_2018/DATOS_MESAS_2018.xlsx
@@ -11,7 +11,8 @@
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$F$310</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$F$346</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$F$310</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="591">
   <si>
     <t xml:space="preserve">1. Nombres</t>
   </si>
@@ -65,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve">Universidad El Bosque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogotá</t>
   </si>
   <si>
     <t xml:space="preserve">Historiografía crítica de la violencia política en la obra de Hannah Arendt. Sobre la relación entre justicia y memoria</t>
@@ -110,6 +114,9 @@
     <t xml:space="preserve">Universidad de Cartagena</t>
   </si>
   <si>
+    <t xml:space="preserve">Norte</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reconocimiento y acuerdos de paz en Colombia, presupuestos e implicaciones</t>
   </si>
   <si>
@@ -137,6 +144,9 @@
     <t xml:space="preserve">Universidad de San Buenaventura – Cali</t>
   </si>
   <si>
+    <t xml:space="preserve">Occidente</t>
+  </si>
+  <si>
     <t xml:space="preserve">La intencionalidad ética de Paul Ricœur y sus posibilidades para la formulación de un método de análisis cualitativo para las ciencias sociales y los estudios políticos</t>
   </si>
   <si>
@@ -146,6 +156,9 @@
     <t xml:space="preserve">Benemérita Universidad Autónoma de Puebla</t>
   </si>
   <si>
+    <t xml:space="preserve">Extranjero</t>
+  </si>
+  <si>
     <t xml:space="preserve">Comprensión e innovación semántica en Paul Ricoeur</t>
   </si>
   <si>
@@ -155,6 +168,9 @@
     <t xml:space="preserve">Universidad Francisco de Paula Santander</t>
   </si>
   <si>
+    <t xml:space="preserve">Centro</t>
+  </si>
+  <si>
     <t xml:space="preserve">La escritura creativa en la población reclusa.  Una lectura desde la identidad narrativa de Paul Ricoeur del programa "Libertad bajo palabra" en la cárcel de mujeres de Cúcuta</t>
   </si>
   <si>
@@ -608,6 +624,9 @@
     <t xml:space="preserve">Universidad de Antioquia</t>
   </si>
   <si>
+    <t xml:space="preserve">Antioquia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Los condicionantes de la comprensión. Una comparación entre el concepto de "arrojamiento" en Martin Heidegger y "creencia" en José Ortega y Gasset</t>
   </si>
   <si>
@@ -1587,6 +1606,227 @@
   </si>
   <si>
     <t xml:space="preserve">La nueva retórica de Chaïm Perelman como teoría de la racionalidad práctica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUBLICACIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">María Luciana Cadahia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediaciones de lo sensible: hacia una economía crítica del dispositivo.  Fondo de Cultura Económica. 2017. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Carrasco Conde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad Complutense de Madrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolás Alvarado </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Pontificia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Universidad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve"> Javeriana</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaime Ramos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ontología social: Una disciplina de frontera. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Andrés Ramírez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Juan Carlos Vélez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constructivismo versus Nuevo Realismo. Límites entre la ética, la hermenéutica y la ciencia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jhonan Ramírez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry Escobar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Álvaro Chicunque</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Juan Fernando Mejía Mosquera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facetas del Pensamiento de Nicolás Gómez Dávila.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javier Aguirre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La religión en la esfera pública. Aproximación al planteamiento de Habermas a partir de tres casos constitucionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Patricia Pabón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alonso Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">María Victoria Uribe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Universidad de los Andes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antropología de la Inhumanidad (2ª edición)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">María del Rosario Acosta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DePaul University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camila de Gamboa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad del Rosario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luisa Monsalve Medina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad Externado de Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dilemas en salud: Investigación en diálogos con las Ciencias Sociales y Humanas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Luis Gómez Rodríguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad San Francisco de Quito </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nietzsche parásito de Emerson: ¿sería posible que habláramos por una sola boca? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Andrés Francisco Contreras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studia Heideggeriana. Vol. VI. Sociedad Iberoamericana de Estudios Heideggerianos (SIEH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Andrés Santiago Beltrán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morfeo, una escuela para la libertad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Diego Morales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Emergence of Mind in a Physical World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinaldo Bernal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pontificia Universidad Javeriana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jennifer Rivera Zambrano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasiones, vicios y virtudes (II) Dos escenarios contemporáneos: la construcción de la subjetividad femenina y las nuevas formas del arte contemporáneo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adolfo Chaparro Amaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La cuestión del ser enemigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustavo Chirolla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germán Bula Caraballo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ediciones Unisalle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spinoza: Educación para el Cambio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germán Vargas Guillén</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universidad Pedagógica Nacional </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLENARIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosemary Rizo-Patrón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pontificia Universidad Católica del Perú </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El hiato en la cultura, la fenomenología de Husserl y la visión sistémica de la vida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonzalo Eduardo Gamio Gehri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discernimiento práctico y conflictos éticos. Motivos trágicos en la filosofía práctica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ángela Uribe Botero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideología y desnivel prometeico. Sobre "Cóndores no entierran todos los días"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pablo Quintanilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pontificia Universidad Católica del Perú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprender al otro: Posibilidades y límites de la creación de un espacio compartido</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
 </sst>
 </file>
@@ -1596,7 +1836,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1626,16 +1866,41 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="6.4"/>
+      <color rgb="FF555555"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1646,6 +1911,13 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -1676,7 +1948,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1693,6 +1965,30 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1702,6 +1998,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF555555"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1714,18 +2070,18 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F310"/>
+  <dimension ref="A1:F346"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D214" activeCellId="0" sqref="D214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="48.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.53"/>
   </cols>
@@ -1750,7 +2106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
@@ -1772,7 +2128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
@@ -1782,39 +2138,45 @@
       <c r="C4" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1828,66 +2190,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1901,66 +2272,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1974,66 +2354,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="E19" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2047,49 +2436,52 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2103,83 +2495,95 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2193,63 +2597,72 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2263,49 +2676,55 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>88</v>
+        <v>93</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E39" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2319,66 +2738,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E43" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2392,66 +2820,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>107</v>
+        <v>112</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E48" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2465,66 +2902,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="E53" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2538,49 +2984,55 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="D57" s="0" t="s">
+        <v>14</v>
+      </c>
       <c r="E57" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2594,66 +3046,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C62" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E62" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>140</v>
+        <v>145</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2667,77 +3128,89 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C66" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="E66" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E67" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="D68" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="69" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="69" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E70" s="0" t="s">
         <v>8</v>
@@ -2754,63 +3227,72 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="E73" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="C75" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>8</v>
@@ -2827,66 +3309,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>162</v>
+        <v>167</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2900,128 +3391,146 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>157</v>
+        <v>162</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3035,128 +3544,146 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>193</v>
+        <v>198</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3170,142 +3697,163 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="101" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="101" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>201</v>
+        <v>207</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3319,145 +3867,163 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="111" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="111" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>214</v>
+        <v>220</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3471,156 +4037,180 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="121" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="121" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="122" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="122" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C125" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="B124" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="E124" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>226</v>
-      </c>
       <c r="E125" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E126" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3634,156 +4224,180 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B136" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="137" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="137" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="138" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="138" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3797,128 +4411,146 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B142" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B143" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B144" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>260</v>
+        <v>266</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B148" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3932,120 +4564,138 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
+      </c>
+      <c r="D152" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="D153" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E153" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="F153" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B153" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C153" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="E153" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
+      </c>
+      <c r="D155" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B157" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>242</v>
+        <v>248</v>
+      </c>
+      <c r="D157" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>6</v>
       </c>
@@ -4053,7 +4703,7 @@
         <v>7</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4067,41 +4717,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>284</v>
+        <v>290</v>
+      </c>
+      <c r="D160" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
+      </c>
+      <c r="D161" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>6</v>
       </c>
@@ -4109,66 +4765,75 @@
         <v>7</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>289</v>
+        <v>295</v>
+      </c>
+      <c r="D163" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="164" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="164" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>289</v>
+        <v>295</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B165" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4182,111 +4847,126 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D169" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>299</v>
+        <v>305</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>162</v>
+        <v>167</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>305</v>
+        <v>311</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4300,111 +4980,126 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>309</v>
+        <v>315</v>
+      </c>
+      <c r="D176" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>312</v>
+        <v>318</v>
+      </c>
+      <c r="D177" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E177" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B178" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D178" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="E178" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="F177" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="B178" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C178" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="E178" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
-        <v>307</v>
-      </c>
       <c r="C179" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>317</v>
+        <v>323</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>320</v>
+        <v>326</v>
+      </c>
+      <c r="D181" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4418,128 +5113,146 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D184" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>328</v>
+        <v>334</v>
+      </c>
+      <c r="D185" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E186" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="F186" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B186" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C186" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="E186" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>335</v>
+        <v>341</v>
+      </c>
+      <c r="D188" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>239</v>
+        <v>245</v>
+      </c>
+      <c r="D189" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E189" s="0" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="D190" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E190" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="F190" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B190" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C190" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="E190" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="F190" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E191" s="0" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4553,94 +5266,106 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="D193" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>346</v>
+        <v>352</v>
+      </c>
+      <c r="D194" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E195" s="0" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B196" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
+      </c>
+      <c r="D196" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B197" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>320</v>
+        <v>326</v>
+      </c>
+      <c r="D197" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E198" s="0" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4654,46 +5379,52 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B200" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>354</v>
+        <v>360</v>
+      </c>
+      <c r="D200" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B201" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>201</v>
+        <v>207</v>
+      </c>
+      <c r="D201" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E202" s="0" t="s">
         <v>8</v>
@@ -4712,61 +5443,70 @@
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>359</v>
+        <v>365</v>
+      </c>
+      <c r="D204" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
+      </c>
+      <c r="D205" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B206" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
+      </c>
+      <c r="D206" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E207" s="0" t="s">
         <v>8</v>
@@ -4785,64 +5525,73 @@
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="D209" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="E209" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="F209" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="F209" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B210" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>317</v>
+        <v>323</v>
+      </c>
+      <c r="D210" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>371</v>
+        <v>377</v>
+      </c>
+      <c r="D211" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4858,109 +5607,124 @@
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="D214" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B215" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>320</v>
+        <v>326</v>
+      </c>
+      <c r="D215" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B216" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
+      </c>
+      <c r="D216" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>346</v>
+        <v>352</v>
+      </c>
+      <c r="D218" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E218" s="0" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>382</v>
+        <v>388</v>
+      </c>
+      <c r="D219" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="E219" s="0" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E220" s="0" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4974,128 +5738,146 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D222" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E222" s="0" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B223" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>388</v>
+        <v>394</v>
+      </c>
+      <c r="D223" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="E223" s="0" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C224" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D224" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E224" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E225" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="B224" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C224" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E224" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C225" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="E225" s="0" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B226" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D226" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E226" s="0" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>395</v>
+        <v>401</v>
+      </c>
+      <c r="D227" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
+      </c>
+      <c r="D228" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C229" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5109,94 +5891,106 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B231" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C231" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D231" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E231" s="0" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C232" s="0" t="s">
-        <v>346</v>
+        <v>352</v>
+      </c>
+      <c r="D232" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C233" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C234" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="D234" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B235" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C235" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D235" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C236" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5210,128 +6004,146 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C238" s="0" t="s">
-        <v>346</v>
+        <v>352</v>
+      </c>
+      <c r="D238" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E238" s="0" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B239" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>411</v>
+        <v>417</v>
+      </c>
+      <c r="D239" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E239" s="0" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C240" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="D240" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="E240" s="0" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C242" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
+      </c>
+      <c r="D242" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E242" s="0" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B243" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C243" s="0" t="s">
-        <v>419</v>
+        <v>425</v>
+      </c>
+      <c r="D243" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E243" s="0" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C244" s="0" t="s">
-        <v>422</v>
+        <v>428</v>
+      </c>
+      <c r="D244" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="E244" s="0" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E245" s="0" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5345,128 +6157,146 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
+      </c>
+      <c r="D247" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E247" s="0" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B248" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D248" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E248" s="0" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D249" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E249" s="0" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E250" s="0" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="D251" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E251" s="0" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>434</v>
+        <v>440</v>
+      </c>
+      <c r="D252" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="B253" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C253" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D253" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E253" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="F253" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B253" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C253" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E253" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5480,111 +6310,126 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>439</v>
+        <v>445</v>
+      </c>
+      <c r="D256" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>442</v>
+        <v>448</v>
+      </c>
+      <c r="D257" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>445</v>
+        <v>451</v>
+      </c>
+      <c r="D258" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="D260" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
+      </c>
+      <c r="D261" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E262" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5598,111 +6443,126 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B264" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>451</v>
+        <v>457</v>
+      </c>
+      <c r="D264" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E264" s="0" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B265" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
+      </c>
+      <c r="D265" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="E265" s="0" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E266" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B267" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>456</v>
+        <v>462</v>
+      </c>
+      <c r="D267" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="E267" s="0" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
+      </c>
+      <c r="D268" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="E268" s="0" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>157</v>
+        <v>162</v>
+      </c>
+      <c r="D269" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="E270" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5716,58 +6576,67 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B272" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
+      </c>
+      <c r="D272" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="E272" s="0" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>201</v>
+        <v>207</v>
+      </c>
+      <c r="D273" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E273" s="0" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B274" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>467</v>
+        <v>473</v>
+      </c>
+      <c r="D274" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="E274" s="0" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
         <v>6</v>
       </c>
@@ -5775,66 +6644,75 @@
         <v>7</v>
       </c>
       <c r="E275" s="0" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="D276" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E276" s="0" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>472</v>
+        <v>478</v>
+      </c>
+      <c r="D277" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E277" s="0" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="278" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="278" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="2" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>472</v>
+        <v>478</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E279" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5848,108 +6726,123 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D281" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E281" s="0" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B282" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D282" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E282" s="0" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E283" s="0" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D284" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E284" s="0" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="285" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="285" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="2" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
+      </c>
+      <c r="D286" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="E286" s="0" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E287" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5963,125 +6856,143 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B289" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="D289" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E289" s="0" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="290" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="290" s="2" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="2" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E290" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="B291" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C291" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D291" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E291" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C292" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="E292" s="0" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C293" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D293" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E293" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
+        <v>497</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C294" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="D294" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E294" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C295" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D295" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E295" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C296" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="E296" s="0" t="s">
         <v>484</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="B291" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C291" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E291" s="0" t="s">
-        <v>486</v>
-      </c>
-      <c r="F291" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C292" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="E292" s="0" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="0" t="s">
-        <v>489</v>
-      </c>
-      <c r="B293" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C293" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="E293" s="0" t="s">
-        <v>490</v>
-      </c>
-      <c r="F293" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="B294" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C294" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="E294" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="F294" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="B295" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C295" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="E295" s="0" t="s">
-        <v>495</v>
-      </c>
-      <c r="F295" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C296" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="E296" s="0" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6097,64 +7008,73 @@
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="D298" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="E298" s="0" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B299" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>499</v>
+        <v>505</v>
+      </c>
+      <c r="D299" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E299" s="0" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>157</v>
+        <v>162</v>
+      </c>
+      <c r="D300" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E300" s="0" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C301" s="0" t="s">
         <v>7</v>
       </c>
       <c r="E301" s="0" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6168,66 +7088,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B303" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D303" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E303" s="0" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D304" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E304" s="0" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C305" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="D305" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="E305" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="F305" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="E305" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="F305" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E306" s="0" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6241,275 +7170,694 @@
         <v>10</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>514</v>
+        <v>520</v>
+      </c>
+      <c r="D308" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E308" s="0" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>517</v>
+        <v>523</v>
+      </c>
+      <c r="D309" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="E309" s="0" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C310" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D310" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E310" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="F310" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B310" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C310" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E310" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="F310" s="2" t="s">
-        <v>513</v>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C311" s="2"/>
+      <c r="D311" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F312" s="2"/>
+    </row>
+    <row r="313" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F313" s="2"/>
+    </row>
+    <row r="314" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F314" s="2"/>
+    </row>
+    <row r="315" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F315" s="2"/>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F316" s="2"/>
+    </row>
+    <row r="317" customFormat="false" ht="55.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E317" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="F317" s="2"/>
+    </row>
+    <row r="318" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E318" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="F318" s="2"/>
+    </row>
+    <row r="319" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E319" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="F319" s="2"/>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E320" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="F320" s="2"/>
+    </row>
+    <row r="321" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E321" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="F321" s="2"/>
+    </row>
+    <row r="322" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E322" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F322" s="2"/>
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E323" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F323" s="2"/>
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E324" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F324" s="2"/>
+    </row>
+    <row r="325" customFormat="false" ht="17.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A325" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E325" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="F325" s="2"/>
+    </row>
+    <row r="326" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E326" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="F326" s="2"/>
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E327" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="F327" s="2"/>
+    </row>
+    <row r="328" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="F328" s="2"/>
+    </row>
+    <row r="329" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E329" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="F329" s="2"/>
+    </row>
+    <row r="330" customFormat="false" ht="28.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E330" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="F330" s="2"/>
+    </row>
+    <row r="331" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D331" s="2"/>
+      <c r="E331" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="F331" s="2"/>
+    </row>
+    <row r="332" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E332" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="F332" s="2"/>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E333" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="F333" s="2"/>
+    </row>
+    <row r="334" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E334" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="F334" s="2"/>
+    </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E335" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="F335" s="2"/>
+    </row>
+    <row r="336" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E336" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="F336" s="2"/>
+    </row>
+    <row r="337" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E337" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="F337" s="2"/>
+    </row>
+    <row r="338" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E338" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="F338" s="2"/>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E339" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="F339" s="2"/>
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="B340" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="C340" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="D340" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="E340" s="0" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="D341" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E341" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="B342" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="D342" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E342" s="5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="B343" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D343" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E343" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="15.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="B344" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="D344" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E344" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="9"/>
+      <c r="E345" s="5" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E346" s="5" t="s">
+        <v>590</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F310">
-    <filterColumn colId="4">
+  <autoFilter ref="A1:F346">
+    <filterColumn colId="1">
       <filters>
-        <filter val="&quot;Conocimiento y cuidado de sí&quot; en Plotino: Diálogo con la tradición socrática y platónica"/>
-        <filter val="Acción política, contingencia y ética: Max Weber y Merleau-Ponty en discusión"/>
-        <filter val="Acción, acontecimiento y cristalización. Hannah Arendt y las dificultades de la comprensión"/>
-        <filter val="Adiós al maldito Yo: Influencia budista e hinduista en el proceso de negación del individuo en la obra de Cioran y Schopenhauer"/>
-        <filter val="Afectividad: normatividad fundamental en la constitución de mundo"/>
-        <filter val="Algunos presupuestos de la filosofía como búsqueda de la verdad"/>
-        <filter val="Análisis de John Rawls sobre la revolución o desobediencia civil"/>
-        <filter val="Análisis de las tres figuras de la conciencia en la Fenomenología del Espíritu como fundamento de la teoría hegeliana del conocimiento"/>
-        <filter val="Aproximaciones al pensamiento mágico, técnico, religioso y estético en Gilbert Simondon"/>
-        <filter val="Aproximaciones para un criterio de objetividad para el conocimiento histórico&#9;"/>
-        <filter val="Arte y técnica. Una breve exposición de la relación entre el arte y la técnica a partir del pensamiento de Martin Heidegger"/>
-        <filter val="Asignaturas pedagógicas, prácticas y otros componentes disciplinares: factores asociados con el desempeño de los Licenciados en Filosofía en competencias específicas de la prueba Saber Pro "/>
-        <filter val="Ausencia de responsabilidad por la justicia: hacia un concepto de la meta-responsabilidad"/>
-        <filter val="Autoconocimiento y Externalismo semántico: consideraciones a los planteamientos de Hilary Putnam"/>
-        <filter val="Caracterización de la «Filosofía Primera» aristotélica: la identificación de la Forma y el fin de las Entidades"/>
-        <filter val="Cartografías del pensamiento:  Estética y política en la obra de Libia Posada"/>
-        <filter val="Categorías decoloniales: una comprensión epistémica inflexa"/>
-        <filter val="Certeza vital y obligaciones hacia el territorio"/>
-        <filter val="Cognición causal y uso de objetos técnicos"/>
-        <filter val="Comprensión e innovación semántica en Paul Ricoeur"/>
-        <filter val="Comunidad y amistad en la hermenéutica de Gadamer"/>
-        <filter val="Conocimiento tecnológico y definición tripartita"/>
-        <filter val="Conocimiento y cuidado de si en Alcibíades y Cármides"/>
-        <filter val="Contingencia e identidad: ¿Cómo son posibles los juicios contingentes de identidad?"/>
-        <filter val="Critica al antinaturalismo de Markus Gabriel&#9;"/>
-        <filter val="Currículo en licenciaturas en filosofía: entre las apuestas institucionales y la legislación para Licenciaturas surgida a partir del PND 2014-2018. Estudio de caso múltiple"/>
-        <filter val="De Marx a Simone Weil: Materialidad y trabajo manual"/>
-        <filter val="De la Política del Terror a la Política de la Libertad"/>
-        <filter val="De la existencia a la realidad, análisis conceptual de los dos sentidos de ‘realidad’ y resignificación de esta como espacio lógico de posibilidades"/>
-        <filter val="De la expulsión de la Bestia Triunfante en Giordano Bruno a la perpetua crisis institucional de la Iglesia Católica"/>
-        <filter val="De los estados de ánimo: una interrogación sobre el tránsito de &quot;Ser y tiempo&quot; a la &quot;Kehre&quot;"/>
-        <filter val="De máquinas a seres vivos: la individualidad dinámica de los organismos"/>
-        <filter val="Democracia y filosofía política: una confrontación entre Guillermo Hoyos-Vásquez y Nicolás Gómez-Dávila "/>
-        <filter val="Descartes encarnado. Una relectura de &quot;Las pasiones del alma&quot;"/>
-        <filter val="Dimensión democrática de la responsabilidad en el caso de los falsos positivos"/>
-        <filter val="Donación y reversibilidad del otro en el último Merleau-Ponty"/>
-        <filter val="Educación inclusiva en perspectiva de género. Una defensa filosófica"/>
-        <filter val="Educación moral, virtud y cuerpo en Montaigne"/>
-        <filter val="El &quot;yo corporizado&quot;: intento de diálogo fenomenológico entre Hume, Kant y M. Ponty"/>
-        <filter val="El conversatorio, una estrategia para fortalecer el pensamiento crítico en las aulas de primaria"/>
-        <filter val="El debate Macintosh-Mattessich: realismo, postmodernidad y construccionismo"/>
-        <filter val="El desdoblamiento de lo general: bases de una teoría política marxista"/>
-        <filter val="El encanto de lo sencillo"/>
-        <filter val="El humanismo ante el advenimiento de la artificialidad"/>
-        <filter val="El juicio mediático: creando culpables por medio del lenguaje"/>
-        <filter val="El maestro ignorante de Jacques Rancière: más allá de la pedagogía"/>
-        <filter val="El materialismo histórico: eficaz herramienta del filósofo para pensar la sociedad"/>
-        <filter val="El olvido de lo común. Perspectivas hermenéuticas y críticas sobre la pérdida de los vínculos sociales en la actualidad"/>
-        <filter val="El paradigma indicial y las aporías de la unilateralidad masculina del pensamiento filosófico"/>
-        <filter val="El pensar noético en Plotino y sus posibles antecedentes orientales"/>
-        <filter val="El populismo en la construcción del relato latinoamericano"/>
-        <filter val="El principio de Apercepción como apertura al problema del Autoconocimiento en KrV"/>
-        <filter val="El puesto del hombre en una ética ambiental "/>
-        <filter val="El silencio como rebelión metafísica "/>
-        <filter val="El sujeto de la red social y la ética de la presencia "/>
-        <filter val="Emergentismo Russelliano"/>
-        <filter val="Enseñanza del pensamiento crítico y escritura filosófica en la escuela de hoy"/>
-        <filter val="Epistemología"/>
-        <filter val="Escribir en clave femenina. Un diálogo entre Hélène Cixous y Anabel Torres"/>
-        <filter val="Esencialismo y relativismo ¿por qué aceptamos una ontología?"/>
-        <filter val="Espacialidad y referencia: variaciones sobre Evans y Campbell"/>
-        <filter val="Espaciamientos sociales y dinámicas inmunitarias"/>
-        <filter val="Espacio y filosofía. La filosofía inacabada y el proyecto de “fuera de clase”"/>
-        <filter val="Estética "/>
-        <filter val="Feminismo y liberalismo: constitución de una ciudadanía democrática"/>
-        <filter val="Feminismos y decolonialidad. Sobre la urgencia de una transformación de la filosofía"/>
-        <filter val="Fenomenología"/>
-        <filter val="Filosofía Analítica"/>
-        <filter val="Filosofía antigua y medieval"/>
-        <filter val="Filosofía antigua y medieval "/>
-        <filter val="Filosofía colombiana y latinoamericana"/>
-        <filter val="Filosofía colombiana y latinoamericana "/>
-        <filter val="Filosofía continental"/>
-        <filter val="Filosofía de la ciencia "/>
-        <filter val="Filosofía de la mente "/>
-        <filter val="Filosofía del lenguaje "/>
-        <filter val="Filosofía francesa"/>
-        <filter val="Filosofía moderna "/>
-        <filter val="Filosofía política 1"/>
-        <filter val="Filosofía política 2"/>
-        <filter val="Filosofía y Pensamiento crítico en la escuela"/>
-        <filter val="Filosofía y educación"/>
-        <filter val="Filosofía y educación 1"/>
-        <filter val="Filosofía y educación 2"/>
-        <filter val="Filosofía, ciencia y religión  "/>
-        <filter val="Formar ciudadanos y educar personas: el reto de la educación filosófica universitaria en no filósofos"/>
-        <filter val="Genealogía de víctima: Lo sagrado y la dignidad humana en la justicia de reparación"/>
-        <filter val="Hacia una noción de cuerpo. Una crítica desde la fenomenología husserliana al dualismo cartesiano"/>
-        <filter val="Heidegger: De la libertad ontológica a la libertad humana"/>
-        <filter val="Hermenéutica"/>
-        <filter val="Hermenéutica 1"/>
-        <filter val="Hermenéutica 2"/>
-        <filter val="Historias naturales: auge y caída de una faceta de la filosofía natural del siglo XVII"/>
-        <filter val="Historicidad y filosofía en Martín Heidegger: hacia una comprensión de concepto de destrucción de la historia de la filosofía"/>
-        <filter val="Historiografía crítica de la violencia política en la obra de Hannah Arendt. Sobre la relación entre justicia y memoria"/>
-        <filter val="Humanidades, democracia y modelo económico de desarrollo"/>
-        <filter val="Husserl y el concepto de normalidad: aperturas y contradicciones"/>
-        <filter val="Individualidad y bienestar: a propósito de John Stuart Mill"/>
-        <filter val="Innatismo y universalismo: reflexiones en torno a la gramática universal"/>
-        <filter val="Intersubjetividad, alteridad y corporalidad en Merleau-Ponty. Hacia un reconocimiento encarnado del otro"/>
-        <filter val="La (In)Actualidad de Deleuze. El caso de la enseñanza de la filosofía"/>
-        <filter val="La Antinomia: ¿Enseñar filosofía o enseñar a filosofar?"/>
-        <filter val="La Dialéctica motor de la Lectura Crítica&#9;"/>
-        <filter val="La Enseñanza de la filosofía: un saber que debe justificarse en la escuela"/>
-        <filter val="La Filosofía como herramienta pedagógica"/>
-        <filter val="La actitud crítica: un posible ethos para la libertad"/>
-        <filter val="La actualidad de la conciencia: el problema de la fenomenología a partir de Martin Heidegger"/>
-        <filter val="La actualidad política de la hermenéutica: solidaridad y recuerdo"/>
-        <filter val="La adjetivación de la justicia desde la perspectiva arendtiana de la acción "/>
-        <filter val="La apertura de la conciencia hermenéutica y la construcción de un lenguaje común, una interpretación del diálogo hermenéutico a la luz del diálogo socrático"/>
-        <filter val="La causalidad agencial en la comprensión de las Ciencias Humanas y Sociales"/>
-        <filter val="La comprensión como problema en la justicia transicional colombiana: una lectura desde Hannah Arendt"/>
-        <filter val="La cosmovisión territorial de los Arhuacos, Pastos y Nukak Makú como filosofía ancestral"/>
-        <filter val="La decolonialidad de poder: ¿una alternativa-crítica hacia la modernidad? "/>
-        <filter val="La defensa de la igualdad de los sexos a partir de la figura del perro: Platón, República V"/>
-        <filter val="La economía, una relación humana en busca del ethos en tiempos globales"/>
-        <filter val="La enseñanza de la filosofía en colombia: retos y esperanzas"/>
-        <filter val="La enseñanza de la filosofía en educación media desde un modelo basado en competencias"/>
-        <filter val="La enseñanza del saber ancestral Kogui"/>
-        <filter val="La erística aristotélica para el abordaje de discordias públicas"/>
-        <filter val="La escritura creativa en la población reclusa.  Una lectura desde la identidad narrativa de Paul Ricoeur del programa &quot;Libertad bajo palabra&quot; en la cárcel de mujeres de Cúcuta"/>
-        <filter val="La eudaimonia aristotélica y el requisito de imparcialidad, exclusión que perdura "/>
-        <filter val="La eutanasia y el contractualismo moral de Tugendhat"/>
-        <filter val="La experiencia de la libertad en el bergsonismo. Consideración ética del tiempo"/>
-        <filter val="La experiencia del cuidado: una aproximación a partir del cuerpo en la fenomenología de Husserl"/>
-        <filter val="La expresión corporizada en Wittgenstein y Merleau-Ponty "/>
-        <filter val="La fenomenología y las ciencias sociales. Fundamentación y descubrimiento"/>
-        <filter val="La filosofía como conciencia de las instituciones educativas y formadora en la educación media"/>
-        <filter val="La filosofía kantiana frente a la distinción entre mentira y otras formas de engaño"/>
-        <filter val="La filosofía y su historia: una propuesta pedagógica para formar filósofos fontaneros (Mary Midgley) a partir de las reflexiones historiográficas de Richard Rorty"/>
-        <filter val="La formación filosófica como punto de encuentro para la paz y la reconciliación en Colombia"/>
-        <filter val="La intencionalidad ética de Paul Ricœur y sus posibilidades para la formulación de un método de análisis cualitativo para las ciencias sociales y los estudios políticos"/>
-        <filter val="La interpretación heideggeriana de Nietzsche"/>
-        <filter val="La matemática como propedéutica de la filosofía en los diálogos platónicos"/>
-        <filter val="La necesidad de un salto para romper con el errante pensar metafísico"/>
-        <filter val="La nueva retórica de Chaïm Perelman como teoría de la racionalidad práctica"/>
-        <filter val="La ontología dinámica de Ernst Bloch"/>
-        <filter val="La posibilidad de la triangulación transicional en la teoría davidsoniana&#9;"/>
-        <filter val="La procesión de los inteligibles y la generación del Noûs en las Enéadas de Plotino"/>
-        <filter val="La práctica de la comunidad de indagación en Filosofía para Niños y la construcción de un ethos comunicacional del cuidado en contextos socialmente marginados"/>
-        <filter val="La racionalidad analógica y la investigación interdisciplinar universitaria.  Superación de la aporía explicación-comprensión y sus consecuencias epistemológicas y hermenéuticas"/>
-        <filter val="La superación expresivista del argumento Frege-Geach"/>
-        <filter val="La tesis práctico-dependiente, derechos humanos y la racionalidad normativa "/>
-        <filter val="La tragedia griega como base para la formación en pensamiento crítico-político: mímesis, simpatía y catarsis en Edipo Rey"/>
-        <filter val="La vida emocional como clave fundamental para una comprensión fenomenológica del ethos de la paz"/>
-        <filter val="Las ciencias cognitivas, el enactivismo y el problema difícil de la conciencia"/>
-        <filter val="Las emociones y su papel en la agencia política colectiva en contextos de opresión "/>
-        <filter val="Liberdade e serenidade a partir da ontologia originária de Heidegger"/>
-        <filter val="Libertad como capacidad de elección"/>
-        <filter val="Lise Meitner: mujer, judía y física. Epistemología, género y raza entre el ocaso del imperio Austro-Húngaro y la IIGM"/>
-        <filter val="Lo bueno y lo indiferente: una respuesta desde Epicteto a la crítica de Plutarco"/>
-        <filter val="Lo social, una pérdida de las fronteras entre lo público y lo privado en el pensamiento de Hannah Arendt"/>
-        <filter val="Los animales y los discapacitados. De casos marginales a seres vulnerables"/>
-        <filter val="Los condicionantes de la comprensión. Una comparación entre el concepto de &quot;arrojamiento&quot; en Martin Heidegger y &quot;creencia&quot; en José Ortega y Gasset"/>
-        <filter val="Los hábitos y el cuerpo como unidad básica de la hermenéutica social"/>
-        <filter val="Los ‘hechos naturales muy generales’ y el lenguaje en las observaciones a la Rama Dorada"/>
-        <filter val="Lógica y argumentación"/>
-        <filter val="Lógica y argumentación "/>
-        <filter val="Lógica y ética en Epicteto. Un examen en favor de la libertad y la felicidad"/>
-        <filter val="Matar al autor. Historia crítica de un homicidio hermenéutico"/>
-        <filter val="Memoria y violencia. La crítica de Walter Benjamin a la enseñanza de la lectura"/>
-        <filter val="Merleau-Ponty: la historia del arte como la metamorfosis de estilo"/>
-        <filter val="Metafísica"/>
-        <filter val="Metamorfosis de la hegemonía, guerra real y democracia formal en Colombia. Elementos para un análisis desde el debate marxismo – posmarxismo"/>
-        <filter val="Mujeres-artefacto. Cuerpo, autoridad subjetiva y autoconocimiento"/>
-        <filter val="Mundo circundante, cuidado y disposiciones afectivas: el realismo pluralista en la analítica de la facticidad en Heidegger y el concepto de campos de sentido en Markus Gabriel"/>
-        <filter val="Más allá de la representación formal del Yo: Sobre una teoría de la identidad personal en Kant"/>
-        <filter val="Ontología y decolonialidad: Apuntes sobre la idea de la diferencia ontológica colonial"/>
-        <filter val="Para una ruptura epistemológica en la filosofía"/>
-        <filter val="Pensar la alteridad en Husserl y Lévinas a partir del estatuto fenomenológico de la sensación"/>
-        <filter val="Performance democrático "/>
-        <filter val="Problemas de diseño como prueba universal de inteligencia"/>
-        <filter val="Propuesta de una Metodología con base en la Lógica Difusa para Abordar Razonamientos de Tipo Sorites"/>
-        <filter val="Qualia y cualidades secundarias"/>
-        <filter val="Reconocimiento y acuerdos de paz en Colombia, presupuestos e implicaciones"/>
-        <filter val="Reflexiones acerca de la humanidad"/>
-        <filter val="Rememoración como respuesta al sufrimiento de las víctimas"/>
-        <filter val="Ricœur/Foucault: Una interlocución postergada "/>
-        <filter val="Rostro y Corazón: Consideraciones sobre el Otro para una Ética de la alteridad. Emmanuel Lévinas y los pueblos mayas tojolabales"/>
-        <filter val="Ryle y Fodor: ¿Es legítimo el debate entre knowing how y knowing that?"/>
-        <filter val="Significación, poder y democracia en el pensamiento de Cornelius Castoriadis"/>
-        <filter val="Sobre el rol de los instintos en la comprensión de la auto-afección: Un estudio a partir de la fenomenología de Husserl "/>
-        <filter val="Sobre la importancia de una hermenéutica realista en épocas de hechos alternativos y de posverdad"/>
-        <filter val="Sobre libertad y persona en los diálogos Apología, Critón y Fedón "/>
-        <filter val="Sobre lo vivo en las tecnologías autónomas"/>
-        <filter val="Sobre verdad y libertad en Nietzsche y Dostoievski "/>
-        <filter val="Superación, finalización y consumación de la metafísica en el pensamiento heideggeriano: una hermenéutica del problema del ser"/>
-        <filter val="Teoría y praxis en la hermenéutica filosófica "/>
-        <filter val="Tres acepciones del ahora: Aristóteles, Agustín y Hegel"/>
-        <filter val="Un cambio en la cultura política sí es posible. De la teoría a la praxis, de la guardilla a lo público: la Democracia deliberativa aplicada al cambio socio/político"/>
-        <filter val="Una aproximación derridiana a la música"/>
-        <filter val="Una crítica a la epistemología naturalizada de Haack"/>
-        <filter val="Una revisión sistemática del paradigma de experimentación con animales en la investigación biomédica. Revisando la Declaración de Helsinki"/>
-        <filter val="Una solución a la paradoja de la reforma de los mecanismos de reforma de las normas constitucionales"/>
-        <filter val="Una ética del sufrimiento: el sentido de la algodicea en el joven Nietzsche"/>
-        <filter val="Validez ejemplar y universalismo (consideraciones retórico-hermenéuticas sobre la experiencia estética en Kant)"/>
-        <filter val="Veracidad pública y libertad política. Elementos para una discusión crítica del liberalismo"/>
-        <filter val="Virtud y Política"/>
-        <filter val="Zootopía: Nussbaum o el sueño de un mundo sin depredación "/>
-        <filter val="¿Cuándo tenemos la misma experiencia?"/>
-        <filter val="¿Es Sócrates sensato? El concepto de sophrosyne en los diálogos platónicos y la relevancia de la figura de Sócrates en la pregunta por cómo conducir la vida&#9;"/>
-        <filter val="¿Es la mente la que otorga la excepcionalidad al ser humano?"/>
-        <filter val="¿Luchas legales? Un debate entre el fetichismo y la enfermedad "/>
-        <filter val="¿Pueden aportar algo las series de televisión a la filosofía hoy? Juan Manuel Díaz Leguizamón"/>
-        <filter val="¿Pueden los colectivos ser moralmente responsables?"/>
-        <filter val="¿Qué es el Programa fuerte en la sociología del conocimiento? Una lectura desde David Bloor"/>
-        <filter val="¿Saber un Lenguaje consiste en tener ciertas Representaciones Mentales?"/>
-        <filter val="Ética"/>
-        <filter val="Ética "/>
-        <filter val="Ética 1"/>
-        <filter val="Ética 2"/>
-        <filter val="Éticas de la autolimitación y políticas de transición para hacer frente colapso socioecológico"/>
-        <filter val="“Caminos del cuerpo” La memoria y el “miembro fantasma” en el pensamiento de Merleau-Ponty"/>
+        <filter val="H"/>
+        <filter val="M"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Norte"/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Congreso_2018/DATOS_MESAS_2018.xlsx
+++ b/Congreso_2018/DATOS_MESAS_2018.xlsx
@@ -11,8 +11,9 @@
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$F$346</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$F$310</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$F$344</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$F$346</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hoja1!$A$1:$F$310</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="590">
   <si>
     <t xml:space="preserve">1. Nombres</t>
   </si>
@@ -1632,6 +1633,7 @@
         <color rgb="FF000000"/>
         <rFont val="Ubuntu"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Pontificia </t>
     </r>
@@ -1651,6 +1653,7 @@
         <color rgb="FF000000"/>
         <rFont val="Ubuntu"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Javeriana</t>
     </r>
@@ -1824,9 +1827,6 @@
   </si>
   <si>
     <t xml:space="preserve">Comprender al otro: Posibilidades y límites de la creación de un espacio compartido</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
   </si>
 </sst>
 </file>
@@ -1871,12 +1871,14 @@
       <color rgb="FF555555"/>
       <name val="Ubuntu"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Ubuntu"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2073,7 +2075,7 @@
   <dimension ref="A1:F346"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D214" activeCellId="0" sqref="D214"/>
+      <selection pane="topLeft" activeCell="D353" activeCellId="0" sqref="D353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7837,17 +7839,11 @@
     </row>
     <row r="345" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="9"/>
-      <c r="E345" s="5" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E346" s="5" t="s">
-        <v>590</v>
-      </c>
-    </row>
+      <c r="E345" s="5"/>
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:F346">
+  <autoFilter ref="A1:F344">
     <filterColumn colId="1">
       <filters>
         <filter val="H"/>

--- a/Congreso_2018/DATOS_MESAS_2018.xlsx
+++ b/Congreso_2018/DATOS_MESAS_2018.xlsx
@@ -11,9 +11,9 @@
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$F$344</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$F$346</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hoja1!$A$1:$F$310</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$F$346</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$A$1:$F$344</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Hoja1!$A$1:$F$310</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2074,8 +2074,8 @@
   </sheetPr>
   <dimension ref="A1:F346"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D353" activeCellId="0" sqref="D353"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2212,7 +2212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>27</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>31</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>58</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>67</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
         <v>336</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
         <v>364</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
         <v>372</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
         <v>379</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
         <v>437</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
         <v>439</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
         <v>442</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
         <v>453</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
         <v>502</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
         <v>525</v>
       </c>
@@ -7843,16 +7843,16 @@
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:F344">
+  <autoFilter ref="A1:F346">
     <filterColumn colId="1">
       <filters>
         <filter val="H"/>
         <filter val="M"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="3">
+    <filterColumn colId="5">
       <customFilters and="true">
-        <customFilter operator="equal" val="Norte"/>
+        <customFilter operator="equal" val="Metafísica"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
